--- a/DataSet/HeatPredictionv2.xlsx
+++ b/DataSet/HeatPredictionv2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,11 +608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
@@ -625,7 +625,7 @@
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -674,7 +674,7 @@
         <v>260969045.13755938</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -700,7 +700,7 @@
         <v>171818439.93041599</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -726,7 +726,7 @@
         <v>2681293078.2400808</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -752,7 +752,7 @@
         <v>104921051.19328775</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -778,7 +778,7 @@
         <v>2079817677.3946919</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -804,7 +804,7 @@
         <v>754788327.56722176</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -830,7 +830,7 @@
         <v>176697050.1667732</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -856,7 +856,7 @@
         <v>1916503922.7419188</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -882,7 +882,7 @@
         <v>419571275.94722044</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -908,7 +908,7 @@
         <v>76729142.453960553</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -934,7 +934,7 @@
         <v>140539164.53316379</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1238013779.3213379</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -986,7 +986,7 @@
         <v>826708355.5008496</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>107844592.76285245</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1694753811.017307</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>868607359.48201394</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0.11363735</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>9.5486399999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1207,12 +1207,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -1222,7 +1222,7 @@
     <col min="19" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>25425</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>20375</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>29560</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>20720</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>13706</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>17618</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>75622</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>29446</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>49674</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>61139</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>54317</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>37300</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>55734</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>79080</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>80829</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>11743</v>
@@ -2336,7 +2336,7 @@
         <v>99512</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>72080</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>91954</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>108538</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>7211</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>172663</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2599,7 +2599,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2617,7 +2617,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2635,12 +2635,14 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26">
+        <v>53420</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2653,12 +2655,14 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27">
+        <v>9955</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2671,11 +2675,13 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6">
+        <v>366474</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2688,11 +2694,13 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>75372</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2705,11 +2713,13 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <v>26706</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2722,11 +2732,13 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6">
+        <v>21853</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2739,10 +2751,12 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="6">
+        <v>23603</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2754,7 +2768,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="4:17">
+    <row r="33" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2768,7 +2782,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="4:17">
+    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2782,7 +2796,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="4:17">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2795,7 +2809,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="4:17">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2808,7 +2822,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="4:17">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2820,7 +2834,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="4:17">
+    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2832,7 +2846,7 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="4:17">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -2844,7 +2858,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="4:17">
+    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="I40" s="6"/>
@@ -2853,7 +2867,7 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="4:17">
+    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="J41" s="6"/>
@@ -2861,7 +2875,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="4:17">
+    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="J42" s="6"/>
@@ -2869,7 +2883,7 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="4:17">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="J43" s="6"/>
@@ -2877,7 +2891,7 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="4:17">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="J44" s="6"/>
@@ -2885,7 +2899,7 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="4:17">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="J45" s="6"/>
@@ -2893,7 +2907,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="4:17">
+    <row r="46" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="J46" s="6"/>
@@ -2901,7 +2915,7 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="4:17">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="J47" s="6"/>
@@ -2909,7 +2923,7 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
     </row>
-    <row r="48" spans="4:17">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="J48" s="6"/>
@@ -2917,175 +2931,175 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="5:17">
+    <row r="49" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="J49" s="6"/>
       <c r="O49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="5:17">
+    <row r="50" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="J50" s="6"/>
       <c r="O50" s="6"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="5:17">
+    <row r="51" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="J51" s="6"/>
       <c r="O51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="5:17">
+    <row r="52" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="J52" s="6"/>
       <c r="O52" s="6"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="5:17">
+    <row r="53" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="J53" s="6"/>
       <c r="O53" s="6"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="5:17">
+    <row r="54" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="J54" s="6"/>
       <c r="O54" s="6"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="5:17">
+    <row r="55" spans="5:17" x14ac:dyDescent="0.2">
       <c r="J55" s="6"/>
       <c r="O55" s="6"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="5:17">
+    <row r="56" spans="5:17" x14ac:dyDescent="0.2">
       <c r="J56" s="6"/>
       <c r="O56" s="6"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="5:17">
+    <row r="57" spans="5:17" x14ac:dyDescent="0.2">
       <c r="J57" s="6"/>
       <c r="O57" s="6"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="5:17">
+    <row r="58" spans="5:17" x14ac:dyDescent="0.2">
       <c r="J58" s="6"/>
       <c r="O58" s="6"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="5:17">
+    <row r="59" spans="5:17" x14ac:dyDescent="0.2">
       <c r="J59" s="6"/>
       <c r="O59" s="6"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="5:17">
+    <row r="60" spans="5:17" x14ac:dyDescent="0.2">
       <c r="O60" s="6"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="5:17">
+    <row r="61" spans="5:17" x14ac:dyDescent="0.2">
       <c r="O61" s="6"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="5:17">
+    <row r="62" spans="5:17" x14ac:dyDescent="0.2">
       <c r="O62" s="6"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="5:17">
+    <row r="63" spans="5:17" x14ac:dyDescent="0.2">
       <c r="O63" s="6"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="5:17">
+    <row r="64" spans="5:17" x14ac:dyDescent="0.2">
       <c r="O64" s="6"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="15:17">
+    <row r="65" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O65" s="6"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="15:17">
+    <row r="66" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O66" s="6"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="15:17">
+    <row r="67" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O67" s="6"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="15:17">
+    <row r="68" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O68" s="6"/>
       <c r="Q68" s="6"/>
     </row>
-    <row r="69" spans="15:17">
+    <row r="69" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O69" s="6"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="15:17">
+    <row r="70" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O70" s="6"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="15:17">
+    <row r="71" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O71" s="6"/>
       <c r="Q71" s="6"/>
     </row>
-    <row r="72" spans="15:17">
+    <row r="72" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O72" s="6"/>
       <c r="Q72" s="6"/>
     </row>
-    <row r="73" spans="15:17">
+    <row r="73" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O73" s="6"/>
       <c r="Q73" s="6"/>
     </row>
-    <row r="74" spans="15:17">
+    <row r="74" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O74" s="6"/>
       <c r="Q74" s="6"/>
     </row>
-    <row r="75" spans="15:17">
+    <row r="75" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O75" s="6"/>
       <c r="Q75" s="6"/>
     </row>
-    <row r="76" spans="15:17">
+    <row r="76" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O76" s="6"/>
       <c r="Q76" s="6"/>
     </row>
-    <row r="77" spans="15:17">
+    <row r="77" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O77" s="6"/>
       <c r="Q77" s="6"/>
     </row>
-    <row r="78" spans="15:17">
+    <row r="78" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O78" s="6"/>
       <c r="Q78" s="6"/>
     </row>
-    <row r="79" spans="15:17">
+    <row r="79" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O79" s="6"/>
       <c r="Q79" s="6"/>
     </row>
-    <row r="80" spans="15:17">
+    <row r="80" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O80" s="6"/>
       <c r="Q80" s="6"/>
     </row>
-    <row r="81" spans="15:17">
+    <row r="81" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O81" s="6"/>
       <c r="Q81" s="6"/>
     </row>
-    <row r="82" spans="15:17">
+    <row r="82" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="15:17">
+    <row r="83" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="15:17">
+    <row r="84" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="15:17">
+    <row r="85" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="15:17">
+    <row r="86" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="15:17">
+    <row r="87" spans="15:17" x14ac:dyDescent="0.2">
       <c r="Q87" s="6">
         <v>30973</v>
       </c>
@@ -3100,19 +3114,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3174,7 +3188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3298,7 +3312,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3360,7 +3374,7 @@
         <v>388886</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3422,7 +3436,7 @@
         <v>388886</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3484,7 +3498,7 @@
         <v>359941</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3546,7 +3560,7 @@
         <v>359941</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3608,7 +3622,7 @@
         <v>808354</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3670,7 +3684,7 @@
         <v>3551448</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3732,7 +3746,7 @@
         <v>417784622</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3794,7 +3808,7 @@
         <v>1143384126</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3856,7 +3870,7 @@
         <v>2061753774</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3918,7 +3932,7 @@
         <v>4283824096</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -3980,7 +3994,7 @@
         <v>4805765463</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -4042,7 +4056,7 @@
         <v>6374690767</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -4104,7 +4118,7 @@
         <v>7985534628</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4166,7 +4180,7 @@
         <v>10492774582</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>513022414</v>
       </c>
@@ -4225,7 +4239,7 @@
         <v>13649087351</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4287,7 +4301,7 @@
         <v>16122014895</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4349,7 +4363,7 @@
         <v>21235563550</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -4411,7 +4425,7 @@
         <v>21324099717</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1288170617</v>
       </c>
@@ -4470,257 +4484,257 @@
         <v>25080051691</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="6:16">
+    <row r="33" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="6:16">
+    <row r="34" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="6:16">
+    <row r="35" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="6:16">
+    <row r="36" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="6:16">
+    <row r="37" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="6:16">
+    <row r="38" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="6:16">
+    <row r="39" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="6:16">
+    <row r="40" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="6:16">
+    <row r="41" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="6:16">
+    <row r="42" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="6:16">
+    <row r="43" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="6:16">
+    <row r="44" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="6:16">
+    <row r="45" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="6:16">
+    <row r="46" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="6:16">
+    <row r="47" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="6:16">
+    <row r="48" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="6:15">
+    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="6:15">
+    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="6:15">
+    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="6:15">
+    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="6:15">
+    <row r="53" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="6:15">
+    <row r="54" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="6:15">
+    <row r="55" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="6:15">
+    <row r="56" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="6:15">
+    <row r="57" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="6:15">
+    <row r="58" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="6:15">
+    <row r="59" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="6:15">
+    <row r="60" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="6:15">
+    <row r="61" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="6:15">
+    <row r="62" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="6:15">
+    <row r="63" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="6:15">
+    <row r="64" spans="6:15" x14ac:dyDescent="0.2">
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="15:15">
+    <row r="65" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="15:15">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="15:15">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="15:15">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="15:15">
+    <row r="69" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="15:15">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="15:15">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="15:15">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="15:15">
+    <row r="73" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="15:15">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="15:15">
+    <row r="75" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="15:15">
+    <row r="76" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="15:15">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="15:15">
+    <row r="78" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="15:15">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="15:15">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="15:17">
+    <row r="81" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="15:17">
+    <row r="82" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="15:17">
+    <row r="83" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="15:17">
+    <row r="84" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="15:17">
+    <row r="85" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="15:17">
+    <row r="86" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="15:17">
+    <row r="87" spans="15:17" x14ac:dyDescent="0.2">
       <c r="Q87" s="6"/>
     </row>
   </sheetData>
